--- a/data/data_financials/ADBE_Cash.xlsx
+++ b/data/data_financials/ADBE_Cash.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -83,7 +83,6 @@
     <col min="8" max="8" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="10" max="10" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -119,9 +118,6 @@
       <c r="J1" s="2">
         <v>39780.0</v>
       </c>
-      <c r="K1" s="2">
-        <v>39416.0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -156,9 +152,6 @@
       <c r="J2" s="0" t="n">
         <v>270269000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>315464000.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -193,9 +186,6 @@
       <c r="J3" s="0" t="n">
         <v>230851000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>120011000.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -230,9 +220,6 @@
       <c r="J4" s="0" t="n">
         <v>1280682000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>1441053000.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -267,9 +254,6 @@
       <c r="J5" s="0" t="n">
         <v>-111792000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>-132075000.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -304,9 +288,6 @@
       <c r="J6" s="0" t="n">
         <v>-3584000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>-75528000.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -341,9 +322,6 @@
       <c r="J7" s="0" t="n">
         <v>-189305000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>289147000.0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -378,9 +356,6 @@
       <c r="J8" s="0" t="n">
         <v>-304681000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>81544000.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -415,9 +390,6 @@
       <c r="J9" s="0" t="n">
         <v>350000000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -452,9 +424,6 @@
       <c r="J10" s="0" t="n">
         <v>-1403550000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>-1435440000.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -489,9 +458,6 @@
       <c r="J11" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -526,9 +492,6 @@
       <c r="J12" s="0" t="n">
         <v>-1021567000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>-1350390000.0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -563,9 +526,6 @@
       <c r="J13" s="0" t="n">
         <v>-14406000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>1715000.0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -600,9 +560,6 @@
       <c r="J14" s="0" t="n">
         <v>-59972000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>173922000.0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -636,9 +593,6 @@
       </c>
       <c r="J15" s="0" t="n">
         <v>1168890000.0</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>1308978000.0</v>
       </c>
     </row>
   </sheetData>
